--- a/Symphony/2021/May/All Details/31.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/31.05.2021/MC Bank Statement May-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -9675,6 +9675,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9691,9 +9694,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9706,8 +9706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33127,8 +33127,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/Symphony/2021/May/All Details/31.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/31.05.2021/MC Bank Statement May-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -6327,11 +6327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="18" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="18" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9675,11 +9675,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9694,6 +9689,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9706,8 +9706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33128,7 +33128,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/Symphony/2021/May/All Details/31.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/31.05.2021/MC Bank Statement May-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3157,18 +3157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3196,10 +3184,22 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6327,7 +6327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="18" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
@@ -6342,67 +6342,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="341" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
-      <c r="N1" s="345"/>
-      <c r="O1" s="345"/>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="342" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="342"/>
+      <c r="N2" s="342"/>
+      <c r="O2" s="342"/>
+      <c r="P2" s="342"/>
+      <c r="Q2" s="342"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="343" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="348"/>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="348"/>
-      <c r="J3" s="348"/>
-      <c r="K3" s="348"/>
-      <c r="L3" s="348"/>
-      <c r="M3" s="348"/>
-      <c r="N3" s="348"/>
-      <c r="O3" s="348"/>
-      <c r="P3" s="348"/>
-      <c r="Q3" s="349"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="345"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6411,52 +6411,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="350" t="s">
+      <c r="A4" s="346" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="352" t="s">
+      <c r="B4" s="348" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="341" t="s">
+      <c r="C4" s="350" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="341" t="s">
+      <c r="D4" s="350" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="341" t="s">
+      <c r="E4" s="350" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="341" t="s">
+      <c r="F4" s="350" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="341" t="s">
+      <c r="G4" s="350" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="341" t="s">
+      <c r="H4" s="350" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="341" t="s">
+      <c r="I4" s="350" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="341" t="s">
+      <c r="J4" s="350" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="341" t="s">
+      <c r="K4" s="350" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="341" t="s">
+      <c r="L4" s="350" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="341" t="s">
+      <c r="M4" s="350" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="341" t="s">
+      <c r="N4" s="350" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="343" t="s">
+      <c r="O4" s="354" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="354" t="s">
+      <c r="P4" s="352" t="s">
         <v>166</v>
       </c>
       <c r="Q4" s="193" t="s">
@@ -6469,22 +6469,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="351"/>
-      <c r="B5" s="353"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="342"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="342"/>
-      <c r="H5" s="342"/>
-      <c r="I5" s="342"/>
-      <c r="J5" s="342"/>
-      <c r="K5" s="342"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="342"/>
-      <c r="N5" s="342"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="355"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="351"/>
+      <c r="I5" s="351"/>
+      <c r="J5" s="351"/>
+      <c r="K5" s="351"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="351"/>
+      <c r="N5" s="351"/>
+      <c r="O5" s="355"/>
+      <c r="P5" s="353"/>
       <c r="Q5" s="194" t="s">
         <v>87</v>
       </c>
@@ -9675,6 +9675,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9691,9 +9694,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33127,8 +33127,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
